--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3104.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3104.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.160445738098477</v>
+        <v>1.23349404335022</v>
       </c>
       <c r="B1">
-        <v>2.432693903357777</v>
+        <v>2.294487476348877</v>
       </c>
       <c r="C1">
-        <v>2.635188760978356</v>
+        <v>3.463886260986328</v>
       </c>
       <c r="D1">
-        <v>3.715580045750389</v>
+        <v>3.883548498153687</v>
       </c>
       <c r="E1">
-        <v>1.806578372953691</v>
+        <v>1.04381000995636</v>
       </c>
     </row>
   </sheetData>
